--- a/Замеры.xlsx
+++ b/Замеры.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -435,10 +435,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D2" s="2">
-        <v>1.05</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -446,13 +446,13 @@
         <v>1000000</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C3" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="D3" s="2">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -460,13 +460,13 @@
         <v>10000000</v>
       </c>
       <c r="B4" s="2">
-        <v>5.2</v>
+        <v>0.85</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D4" s="2">
-        <v>15.95</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="6" spans="1:4">

--- a/Замеры.xlsx
+++ b/Замеры.xlsx
@@ -435,10 +435,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0.1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D2" s="2">
-        <v>6.2</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -446,13 +446,13 @@
         <v>1000000</v>
       </c>
       <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="D3" s="2">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2.9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -460,13 +460,13 @@
         <v>10000000</v>
       </c>
       <c r="B4" s="2">
-        <v>0.85</v>
+        <v>21.1</v>
       </c>
       <c r="C4" s="2">
-        <v>0.1</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="D4" s="2">
-        <v>7.75</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:4">
